--- a/src/assets/fxsj_mb/fxtb_f11_sysj.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f11_sysj.xlsx
@@ -37,12 +37,10 @@
     <t>类别</t>
   </si>
   <si>
-    <t>使用率
-应完成人次</t>
-  </si>
-  <si>
-    <t>使用率
-实际完成人次</t>
+    <t>使用率应完成人次</t>
+  </si>
+  <si>
+    <t>使用率实际完成人次</t>
   </si>
   <si>
     <t>春</t>
@@ -95,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,6 +128,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -137,16 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +190,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,34 +218,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,43 +243,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,13 +274,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,91 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,55 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,17 +483,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,26 +535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +565,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1074,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
@@ -1087,7 +1085,7 @@
     <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="27.0833333333333" customWidth="1"/>
     <col min="6" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="15.1111111111111" customWidth="1"/>
+    <col min="8" max="9" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:9">
@@ -1121,7 +1119,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9">
       <c r="A2" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1150,7 +1148,7 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:9">
       <c r="A3" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1179,7 +1177,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
